--- a/src/main/java/TestData/Testdatasheet.xlsx
+++ b/src/main/java/TestData/Testdatasheet.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2A309287-0BA5-441D-9790-9DF5549B8420}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B7955D21-9479-4DFF-AB78-B0DC65DC3EA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="7290" xr2:uid="{2547585B-35DA-45D3-A47D-F2A6741E064C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14145" windowHeight="5895" activeTab="1" xr2:uid="{2547585B-35DA-45D3-A47D-F2A6741E064C}"/>
   </bookViews>
   <sheets>
     <sheet name="Testdata" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="partial delivery" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
-    <sheet name="QuickAdd" sheetId="8" r:id="rId5"/>
-    <sheet name="Contact" sheetId="9" r:id="rId6"/>
-    <sheet name="vendor" sheetId="10" r:id="rId7"/>
-    <sheet name="Product page" sheetId="11" r:id="rId8"/>
+    <sheet name="CartPart" sheetId="12" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="partial delivery" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
+    <sheet name="QuickAdd" sheetId="8" r:id="rId6"/>
+    <sheet name="Contact" sheetId="9" r:id="rId7"/>
+    <sheet name="vendor" sheetId="10" r:id="rId8"/>
+    <sheet name="Product page" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N22"/>
+  <oleSize ref="A1:N17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8240" uniqueCount="4443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8244" uniqueCount="4445">
   <si>
     <t>testing</t>
   </si>
@@ -13358,6 +13359,12 @@
   </si>
   <si>
     <t>DS1005</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>SASI</t>
   </si>
 </sst>
 </file>
@@ -13716,8 +13723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC77ED0C-C622-4673-8AA9-D7A6C3064F67}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13773,6 +13780,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DA34C8-C16A-484D-8829-7D76EECA90F4}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4443</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4444</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FCA799-4873-4195-8F19-1CC3D2F5C5B3}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -13845,7 +13912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CAA690-C9B8-4A47-8CE1-A0956D4E25BC}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -13948,7 +14015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F187D601-CF39-451E-9D70-9DDC272A181B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -14009,7 +14076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25465820-A040-4956-829B-05010E3F81FE}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -14077,7 +14144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC64BCF-5E37-4897-B6A0-82B57ED672DB}">
   <dimension ref="A1:B3962"/>
   <sheetViews>
@@ -45792,7 +45859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2B58E9-08D7-4386-9D1E-FC04F424FC24}">
   <dimension ref="A1:A237"/>
   <sheetViews>
@@ -46991,7 +47058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEC661-7F72-46E1-B3CF-978B13212B53}">
   <dimension ref="A1:A2"/>
   <sheetViews>
